--- a/Emissao/Dados_Emissao/Editado/Ailton_Covre.xlsx
+++ b/Emissao/Dados_Emissao/Editado/Ailton_Covre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA124"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,13 +564,22 @@
           <t>Frota Itens</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZeradoMes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>531</v>
+      </c>
+      <c r="C2" t="n">
+        <v>926</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>401572</t>
@@ -581,17 +590,51 @@
           <t>ANGELINI COR.DE SEGUROS LTDA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2748</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DROGARIA STA PAULA LARANJAL PAULISTA</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 557,31</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 598,41</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
@@ -633,8 +676,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Empresarial</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -706,6 +754,11 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -777,6 +830,11 @@
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -791,7 +849,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ATUAL PIRACICABANA ADM E CORR</t>
+          <t>ATUAL PIRACICABANA ADM E COR DE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -848,6 +906,11 @@
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -862,7 +925,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ATUAL PIRACICABANA ADM E CORR</t>
+          <t>ATUAL PIRACICABANA ADM E COR DE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -919,6 +982,11 @@
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -990,6 +1058,11 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1061,6 +1134,11 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1132,6 +1210,11 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1203,17 +1286,18 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>531</v>
-      </c>
-      <c r="C11" t="n">
-        <v>990</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>403460</t>
@@ -1224,51 +1308,17 @@
           <t>BRESCIANI DESP.E CORR DE SEGUROS</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>110360</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>LUIS FELIPE VAZ DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.025,05</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.174,49</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
@@ -1310,23 +1360,20 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>531</v>
-      </c>
-      <c r="C12" t="n">
-        <v>600</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>403460</t>
@@ -1337,51 +1384,17 @@
           <t>BRESCIANI DESP.E CORR DE SEGUROS</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>387</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>MARCELLO ASSAD FELIPE</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.338,72</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.338,72</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
@@ -1423,12 +1436,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Equipamento Agricola</t>
-        </is>
-      </c>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1500,6 +1514,11 @@
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1571,6 +1590,11 @@
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1642,6 +1666,11 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1713,6 +1742,11 @@
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1784,17 +1818,18 @@
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>531</v>
-      </c>
-      <c r="C18" t="n">
-        <v>990</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>402613</t>
@@ -1805,51 +1840,17 @@
           <t>CJC CORRETORA DE SEGS S/S LTDA</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>110588</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>MAICON HENRIQUE DA MATTA</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2024-10-18</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2025-10-18</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.804,65</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.937,83</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
@@ -1891,12 +1892,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1968,17 +1970,18 @@
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>531</v>
-      </c>
-      <c r="C20" t="n">
-        <v>926</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>403900</t>
@@ -1989,51 +1992,17 @@
           <t>CONVENIO CORR E ADM SEGUROS LTDA</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>2679</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>FC DE ALMEIDA LTDA</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.843,24</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.979,26</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
@@ -2075,23 +2044,20 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
+      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>531</v>
-      </c>
-      <c r="C21" t="n">
-        <v>990</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>403900</t>
@@ -2102,60 +2068,26 @@
           <t>CONVENIO CORR E ADM SEGUROS LTDA</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>110180</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ANTONIO LUBIANI</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2025-09-24</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>12</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.521,56</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.076,65</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2188,12 +2120,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2203,12 +2136,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>403900</t>
+          <t>401956</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CONVENIO CORR E ADM SEGUROS LTDA</t>
+          <t>COPERCOR PIRACICABA CORRET ADM S</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2225,12 +2158,12 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2265,17 +2198,18 @@
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>531</v>
-      </c>
-      <c r="C23" t="n">
-        <v>926</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>401956</t>
@@ -2286,60 +2220,26 @@
           <t>COPERCOR PIRACICABA CORRET ADM S</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>2664</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>CLINICA DE FISIOTERAPIA HL REABILITACAO LTDA</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>4</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 603,20</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 647,68</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2372,87 +2272,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>531</v>
-      </c>
-      <c r="C24" t="n">
-        <v>927</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>401956</t>
+          <t>437352</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>COPERCOR PIRACICABA CORRET ADM S</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5898</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>GABRIELY ESCOBAR</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 333,90</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 358,53</t>
-        </is>
-      </c>
+          <t>DANUBIO AZUL COR DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2485,78 +2348,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>531</v>
-      </c>
-      <c r="C25" t="n">
-        <v>927</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>401956</t>
+          <t>437352</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>COPERCOR PIRACICABA CORRET ADM S</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5899</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>FELIPE SETEM NUNES SIMOES</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 101,49</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 108,97</t>
-        </is>
-      </c>
+          <t>DANUBIO AZUL COR DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
@@ -2598,87 +2424,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>531</v>
-      </c>
-      <c r="C26" t="n">
-        <v>927</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>401956</t>
+          <t>402937</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>COPERCOR PIRACICABA CORRET ADM S</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5900</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>LEANDRO MARCIEL OSTI</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2024-10-24</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 874,84</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 939,38</t>
-        </is>
-      </c>
+          <t>DELLA COLETTA COR E ADM DE SEGS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2711,87 +2500,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>531</v>
-      </c>
-      <c r="C27" t="n">
-        <v>990</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>437352</t>
+          <t>402937</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DANUBIO AZUL COR DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>110488</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>GISLEINE LUCAZECHI TRICCA</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>10</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.592,51</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.783,83</t>
-        </is>
-      </c>
+          <t>DELLA COLETTA COR E ADM DE SEGS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2824,12 +2576,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2839,12 +2592,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>437352</t>
+          <t>437266</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DANUBIO AZUL COR DE SEGUROS LTDA</t>
+          <t>DESUO CORR DE SGRS LTDA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2861,12 +2614,12 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -2901,81 +2654,48 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>531</v>
-      </c>
-      <c r="C29" t="n">
-        <v>919</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>402937</t>
+          <t>437266</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DELLA COLETTA COR E ADM DE SEGS</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2602</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>CONDOMINIO EDIFICIO ATLANTIS</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>6</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.504,87</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.984,87</t>
-        </is>
-      </c>
+          <t>DESUO CORR DE SGRS LTDA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3008,78 +2728,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Condominio</t>
-        </is>
-      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>531</v>
-      </c>
-      <c r="C30" t="n">
-        <v>927</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>402937</t>
+          <t>403675</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DELLA COLETTA COR E ADM DE SEGS</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>15462</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ANTENOR GODOY JUNIOR</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2023-12-05</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>6</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 506,94</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 548,01</t>
-        </is>
-      </c>
+          <t>DIFERE CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
@@ -3121,12 +2804,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3136,12 +2820,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>402937</t>
+          <t>403675</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DELLA COLETTA COR E ADM DE SEGS</t>
+          <t>DIFERE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3198,6 +2882,11 @@
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3207,12 +2896,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>437266</t>
+          <t>444148</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DESUO CORR DE SGRS LTDA</t>
+          <t>DTS CORR. DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -3269,6 +2958,11 @@
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3278,12 +2972,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>437266</t>
+          <t>444148</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DESUO CORR DE SGRS LTDA</t>
+          <t>DTS CORR. DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -3340,72 +3034,39 @@
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>531</v>
-      </c>
-      <c r="C34" t="n">
-        <v>927</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>403675</t>
+          <t>478848</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DIFERE CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>20960</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>RODRIGO CID FURLAN OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 156,78</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 168,34</t>
-        </is>
-      </c>
+          <t>EHTICA PIRACICABA CORR SEGS</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
@@ -3447,78 +3108,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>531</v>
-      </c>
-      <c r="C35" t="n">
-        <v>927</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>403675</t>
+          <t>400119</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DIFERE CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>20962</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>MARCIA FURLAN OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 150,15</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 161,22</t>
-        </is>
-      </c>
+          <t>ELIANA ALVES DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
@@ -3560,12 +3184,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3575,12 +3200,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>403675</t>
+          <t>400119</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DIFERE CORRETORA DE SEGUROS LTDA</t>
+          <t>ELIANA ALVES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3637,6 +3262,11 @@
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3646,12 +3276,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>444148</t>
+          <t>402399</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DTS CORR. DE SEGS LTDA ME</t>
+          <t>ELIAS FAUSTO CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -3708,6 +3338,11 @@
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3717,12 +3352,12 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>444148</t>
+          <t>402399</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DTS CORR. DE SEGS LTDA ME</t>
+          <t>ELIAS FAUSTO CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -3779,6 +3414,11 @@
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3788,12 +3428,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>478848</t>
+          <t>443338</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EHTICA PIRACICABA CORR SEGS</t>
+          <t>ELLO CORRETORA DE SEGUROS LTDA -</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -3850,6 +3490,11 @@
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3859,12 +3504,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>400119</t>
+          <t>443338</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ELIANA ALVES DE OLIVEIRA</t>
+          <t>ELLO CORRETORA DE SEGUROS LTDA -</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -3881,12 +3526,12 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -3921,43 +3566,86 @@
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>531</v>
+      </c>
+      <c r="C41" t="n">
+        <v>990</v>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>400119</t>
+          <t>521530</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ELIANA ALVES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+          <t>EMBRACOR ADM E CORR DE SEGS LTDA</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>111771</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>LUCIANA GRANUZZIO RODRIGUES</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.114,17</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.270,19</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -3990,8 +3678,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4001,12 +3694,12 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>402399</t>
+          <t>400674</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ELIAS FAUSTO CORRETORA DE SEGURO</t>
+          <t>EVANDRO JOSE GRANUZZIO RODRIGUES</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -4063,6 +3756,11 @@
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4072,12 +3770,12 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>402399</t>
+          <t>400674</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ELIAS FAUSTO CORRETORA DE SEGURO</t>
+          <t>EVANDRO JOSE GRANUZZIO RODRIGUES</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4134,34 +3832,77 @@
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>531</v>
+      </c>
+      <c r="C44" t="n">
+        <v>990</v>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>443338</t>
+          <t>446763</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ELLO CORRETORA DE SEGUROS LTDA -</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+          <t>FAZA 10 CORR DE SEGS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>111764</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>FRANCISCO AREOVALDO FAZANARO</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>10</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.325,49</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.644,71</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
@@ -4203,74 +3944,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>531</v>
-      </c>
-      <c r="C45" t="n">
-        <v>927</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>443338</t>
+          <t>446763</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ELLO CORRETORA DE SEGUROS LTDA -</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>5897</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>AILTON ALVES DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>8</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 480,11</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 515,47</t>
-        </is>
-      </c>
+          <t>FAZA 10 CORR DE SEGS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
@@ -4312,78 +4020,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>531</v>
-      </c>
-      <c r="C46" t="n">
-        <v>927</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>521530</t>
+          <t>401743</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EMBRACOR ADM E CORR DE SEGS LTDA</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>20939</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>GUILHERME ANTUNES DA SILVA</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 195,55</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 209,97</t>
-        </is>
-      </c>
+          <t>FRACETTO CORR DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
@@ -4425,12 +4096,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4440,12 +4112,12 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>400674</t>
+          <t>401743</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>EVANDRO JOSE GRANUZZIO RODRIGUES</t>
+          <t>FRACETTO CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -4462,12 +4134,12 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4502,6 +4174,11 @@
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4511,12 +4188,12 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>400674</t>
+          <t>403964</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>EVANDRO JOSE GRANUZZIO RODRIGUES</t>
+          <t>FRATERNA COR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -4533,12 +4210,12 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4573,81 +4250,48 @@
       </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>531</v>
-      </c>
-      <c r="C49" t="n">
-        <v>990</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>446763</t>
+          <t>403964</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FAZA 10 CORR DE SEGS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>110314</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>BRENDA LARISSE DE ALBUQUERQUE MERLI</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>10</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.478,71</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.956,83</t>
-        </is>
-      </c>
+          <t>FRATERNA COR DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -4680,12 +4324,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4695,12 +4340,12 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>446763</t>
+          <t>445861</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FAZA 10 CORR DE SEGS LTDA ME</t>
+          <t>GALVAO &amp; CAMPOS CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -4717,12 +4362,12 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -4757,6 +4402,11 @@
       </c>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4766,12 +4416,12 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>401743</t>
+          <t>445861</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FRACETTO CORR DE SEGUROS LTDA</t>
+          <t>GALVAO &amp; CAMPOS CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -4788,12 +4438,12 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -4828,81 +4478,48 @@
       </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>531</v>
-      </c>
-      <c r="C52" t="n">
-        <v>927</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>401743</t>
+          <t>403033</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FRACETTO CORR DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>5895</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>CASSIA MARIA ROZEMBERG</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>6</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 382,59</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 410,79</t>
-        </is>
-      </c>
+          <t>GIATTI E CAMPOS CORR.DE SEGS.LTD</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -4935,87 +4552,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>531</v>
-      </c>
-      <c r="C53" t="n">
-        <v>600</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>403964</t>
+          <t>403033</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FRATERNA COR DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1751</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>ANTONIO CARLOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2024-09-26</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2025-09-26</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>6</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.163,47</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.163,47</t>
-        </is>
-      </c>
+          <t>GIATTI E CAMPOS CORR.DE SEGS.LTD</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -5048,12 +4628,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>Equipamento Agricola</t>
-        </is>
-      </c>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5063,12 +4644,12 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>403964</t>
+          <t>511230</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FRATERNA COR DE SEGUROS LTDA</t>
+          <t>GIV CORR E ADM DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -5085,12 +4666,12 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -5125,72 +4706,39 @@
       </c>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>531</v>
-      </c>
-      <c r="C55" t="n">
-        <v>990</v>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>445861</t>
+          <t>526266</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GALVAO &amp; CAMPOS CORRETORA DE SEG</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>110455</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>ELISABETE DOS SANTOS VIEIRA</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>10</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.705,85</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.979,34</t>
-        </is>
-      </c>
+          <t>INSURESEG CORRETORA DE SEGUROS L</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
@@ -5232,12 +4780,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5247,12 +4796,12 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>445861</t>
+          <t>405631</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GALVAO &amp; CAMPOS CORRETORA DE SEG</t>
+          <t>JOSEMAR ALVES JUSTINO</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -5269,12 +4818,12 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -5309,81 +4858,48 @@
       </c>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>531</v>
-      </c>
-      <c r="C57" t="n">
-        <v>990</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>403033</t>
+          <t>405631</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>GIATTI E CAMPOS CORR.DE SEGS.LTD</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>110226</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>WILSON LINO DE SOUZA</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2025-09-16</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>6</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.854,58</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.360,44</t>
-        </is>
-      </c>
+          <t>JOSEMAR ALVES JUSTINO</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -5416,78 +4932,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>531</v>
-      </c>
-      <c r="C58" t="n">
-        <v>990</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>403033</t>
+          <t>402840</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>GIATTI E CAMPOS CORR.DE SEGS.LTD</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>110478</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>JOSE DAS DORES TONON</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>4</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.270,40</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.437,95</t>
-        </is>
-      </c>
+          <t>LARANJAL CORRETORA DE SEGUROS S/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
@@ -5529,12 +5008,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5544,12 +5024,12 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>403033</t>
+          <t>402840</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GIATTI E CAMPOS CORR.DE SEGS.LTD</t>
+          <t>LARANJAL CORRETORA DE SEGUROS S/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -5606,72 +5086,39 @@
       </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>531</v>
-      </c>
-      <c r="C60" t="n">
-        <v>927</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>511230</t>
+          <t>402531</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GIV CORR E ADM DE SEGS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>21048</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>ALINE APARECIDA DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>2</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 133,69</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 143,55</t>
-        </is>
-      </c>
+          <t>LEITE RIBEIRO COR.DE SEGS.LTDA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
@@ -5713,87 +5160,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>531</v>
-      </c>
-      <c r="C61" t="n">
-        <v>990</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>511230</t>
+          <t>402531</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GIV CORR E ADM DE SEGS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>110290</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>VALERIO COELHO DA SILVA</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>3</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.242,66</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.334,36</t>
-        </is>
-      </c>
+          <t>LEITE RIBEIRO COR.DE SEGS.LTDA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -5826,12 +5236,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5841,12 +5252,12 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>526266</t>
+          <t>414782</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>INSURESEG CORRETORA DE SEGUROS L</t>
+          <t>LINOSEG CORETORA DE SEGUROS SC L</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -5903,81 +5314,48 @@
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>531</v>
-      </c>
-      <c r="C63" t="n">
-        <v>990</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>405631</t>
+          <t>414782</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>JOSEMAR ALVES JUSTINO</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>110489</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>MARIA JOSE DINI BELTRAN</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>10</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.336,97</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.435,63</t>
-        </is>
-      </c>
+          <t>LINOSEG CORETORA DE SEGUROS SC L</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -6010,12 +5388,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6025,12 +5404,12 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>405631</t>
+          <t>526437</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>JOSEMAR ALVES JUSTINO</t>
+          <t>LIPASEG CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -6047,12 +5426,12 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -6087,6 +5466,11 @@
       </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6096,12 +5480,12 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>402840</t>
+          <t>401237</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LARANJAL CORRETORA DE SEGUROS S/</t>
+          <t>LUIZ GONZAGA LEITE COELHO</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -6158,6 +5542,11 @@
       </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6167,12 +5556,12 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>402840</t>
+          <t>401237</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LARANJAL CORRETORA DE SEGUROS S/</t>
+          <t>LUIZ GONZAGA LEITE COELHO</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -6229,72 +5618,39 @@
       </c>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>531</v>
-      </c>
-      <c r="C67" t="n">
-        <v>990</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>402531</t>
+          <t>437302</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LEITE RIBEIRO COR.DE SEGS.LTDA</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>110526</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>THAIS PEREIRA MEIRELES</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>10</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.249,97</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.416,01</t>
-        </is>
-      </c>
+          <t>MARCIO JUNIO CAIRES BRITO</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
@@ -6336,12 +5692,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6351,12 +5708,12 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>402531</t>
+          <t>437302</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LEITE RIBEIRO COR.DE SEGS.LTDA</t>
+          <t>MARCIO JUNIO CAIRES BRITO</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -6413,6 +5770,11 @@
       </c>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6422,12 +5784,12 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>414782</t>
+          <t>404356</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LINOSEG CORETORA DE SEGUROS SC L</t>
+          <t>MELHORX CORR. E ADM DE SEGS LTD</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -6484,6 +5846,11 @@
       </c>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6493,12 +5860,12 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>414782</t>
+          <t>404356</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LINOSEG CORETORA DE SEGUROS SC L</t>
+          <t>MELHORX CORR. E ADM DE SEGS LTD</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -6555,72 +5922,39 @@
       </c>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>531</v>
-      </c>
-      <c r="C71" t="n">
-        <v>990</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>526437</t>
+          <t>478892</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LIPASEG CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>110457</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>LILIANE BORTOLETTO ALONSO GONCALVES</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>10</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.338,97</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.511,58</t>
-        </is>
-      </c>
+          <t>MITIKA CORR DE SEGUROS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
@@ -6662,12 +5996,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6677,12 +6012,12 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>401237</t>
+          <t>478892</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LUIZ GONZAGA LEITE COELHO</t>
+          <t>MITIKA CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -6699,12 +6034,12 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -6739,6 +6074,11 @@
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6748,12 +6088,12 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>401237</t>
+          <t>403407</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LUIZ GONZAGA LEITE COELHO</t>
+          <t>MUNDIAL PLUS CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -6770,12 +6110,12 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -6810,6 +6150,11 @@
       </c>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6819,12 +6164,12 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>437302</t>
+          <t>403407</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MARCIO JUNIO CAIRES BRITO</t>
+          <t>MUNDIAL PLUS CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -6841,12 +6186,12 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -6881,6 +6226,11 @@
       </c>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6890,12 +6240,12 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>437302</t>
+          <t>403243</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MARCIO JUNIO CAIRES BRITO</t>
+          <t>NETTO MENDES CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -6912,12 +6262,12 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -6952,6 +6302,11 @@
       </c>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6961,12 +6316,12 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>404356</t>
+          <t>480566</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MELHORX CORR. E ADM DE SEGS LTD</t>
+          <t>NEW STATION CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -7023,6 +6378,11 @@
       </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7032,12 +6392,12 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>404356</t>
+          <t>480566</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MELHORX CORR. E ADM DE SEGS LTD</t>
+          <t>NEW STATION CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -7094,72 +6454,39 @@
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>531</v>
-      </c>
-      <c r="C78" t="n">
-        <v>990</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>478892</t>
+          <t>405396</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MITIKA CORR DE SEGUROS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>110379</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>32580</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>REYNALDO DOS ANJOS SOBRINHO</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>4</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.125,10</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.281,93</t>
-        </is>
-      </c>
+          <t>NILSEG CORRETORA SEG. LT</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
@@ -7201,12 +6528,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7216,12 +6544,12 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>478892</t>
+          <t>405396</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MITIKA CORR DE SEGUROS LTDA ME</t>
+          <t>NILSEG CORRETORA SEG. LT</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -7278,6 +6606,11 @@
       </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7287,12 +6620,12 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>403407</t>
+          <t>403856</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MUNDIAL PLUS CORRETORA DE SEGS L</t>
+          <t>NOVA AMERICA &amp; HENRYCUNH CALDERI</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -7349,6 +6682,11 @@
       </c>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7358,12 +6696,12 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>403407</t>
+          <t>403856</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MUNDIAL PLUS CORRETORA DE SEGS L</t>
+          <t>NOVA AMERICA &amp; HENRYCUNH CALDERI</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -7420,72 +6758,39 @@
       </c>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>531</v>
-      </c>
-      <c r="C82" t="n">
-        <v>927</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>403243</t>
+          <t>442039</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NETTO MENDES CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>21071</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>ERMES VIRGILIO MENDES</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>8</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 255,75</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 274,55</t>
-        </is>
-      </c>
+          <t>OMERO A F JUNIOR CORR. SEGS ME</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
@@ -7527,12 +6832,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7542,12 +6848,12 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>480566</t>
+          <t>442039</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NEW STATION CORR DE SEGS LTDA</t>
+          <t>OMERO A F JUNIOR CORR. SEGS ME</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -7564,12 +6870,12 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -7604,6 +6910,11 @@
       </c>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7613,12 +6924,12 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>480566</t>
+          <t>403765</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NEW STATION CORR DE SEGS LTDA</t>
+          <t>PAQUELA ADM E CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -7635,12 +6946,12 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -7675,6 +6986,11 @@
       </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7684,12 +7000,12 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>405396</t>
+          <t>403765</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NILSEG CORRETORA SEG. LT</t>
+          <t>PAQUELA ADM E CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -7706,12 +7022,12 @@
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -7746,6 +7062,11 @@
       </c>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7755,12 +7076,12 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>405396</t>
+          <t>403504</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NILSEG CORRETORA SEG. LT</t>
+          <t>PRATA &amp; ALMEIDA CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -7777,12 +7098,12 @@
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -7817,6 +7138,11 @@
       </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7826,12 +7152,12 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>403856</t>
+          <t>403504</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NOVA AMERICA &amp; HENRYCUNH CALDERI</t>
+          <t>PRATA &amp; ALMEIDA CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -7848,12 +7174,12 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -7888,6 +7214,11 @@
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7897,12 +7228,12 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>403856</t>
+          <t>404055</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NOVA AMERICA &amp; HENRYCUNH CALDERI</t>
+          <t>PRESENCA TOTAL CORRETORA DE SEGS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -7919,12 +7250,12 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -7959,6 +7290,11 @@
       </c>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7968,12 +7304,12 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>442039</t>
+          <t>404055</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>OMERO A F JUNIOR CORR. SEGS ME</t>
+          <t>PRESENCA TOTAL CORRETORA DE SEGS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -7990,12 +7326,12 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -8030,43 +7366,86 @@
       </c>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>531</v>
+      </c>
+      <c r="C90" t="n">
+        <v>990</v>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>442039</t>
+          <t>404707</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>OMERO A F JUNIOR CORR. SEGS ME</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+          <t>PREVITALLI CORR DE SEGS S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>111779</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>ROSIMEIRE LUCAS</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>10</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.905,44</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.119,86</t>
+        </is>
+      </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -8099,8 +7478,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8110,12 +7494,12 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>403765</t>
+          <t>404707</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PAQUELA ADM E CORRETORA DE SEGUR</t>
+          <t>PREVITALLI CORR DE SEGS S/C LTDA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -8132,12 +7516,12 @@
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -8172,81 +7556,48 @@
       </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>531</v>
-      </c>
-      <c r="C92" t="n">
-        <v>927</v>
-      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>403765</t>
+          <t>524728</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PAQUELA ADM E CORRETORA DE SEGUR</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>5896</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>VALE FORMOSO PARTICIPACOES E EMPREENDIMENTOS AGRIC</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>4</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 328,75</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 352,99</t>
-        </is>
-      </c>
+          <t>PROSPERITTE CONSULT CORR SEG BEN</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -8279,87 +7630,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>531</v>
-      </c>
-      <c r="C93" t="n">
-        <v>927</v>
-      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>403765</t>
+          <t>404888</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PAQUELA ADM E CORRETORA DE SEGUR</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>5901</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>TERESINHA MAGALI DEMARCHI MENDES</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>4</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 265,29</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 284,85</t>
-        </is>
-      </c>
+          <t>QUECINE CORR DE SEGS S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -8392,12 +7706,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8407,12 +7722,12 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>403504</t>
+          <t>404888</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PRATA &amp; ALMEIDA CORRETORA DE SEG</t>
+          <t>QUECINE CORR DE SEGS S/C LTDA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -8429,12 +7744,12 @@
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -8469,6 +7784,11 @@
       </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -8478,12 +7798,12 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>403504</t>
+          <t>404466</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PRATA &amp; ALMEIDA CORRETORA DE SEG</t>
+          <t>R. FERRAZ CAPIVARI CORRETORA DE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -8500,12 +7820,12 @@
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -8540,81 +7860,48 @@
       </c>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>531</v>
-      </c>
-      <c r="C96" t="n">
-        <v>990</v>
-      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>404055</t>
+          <t>404466</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PRESENCA TOTAL CORRETORA DE SEGS</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>110453</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>NATALIA DE CARVALHO BRAGA</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>10</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.790,29</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.996,21</t>
-        </is>
-      </c>
+          <t>R. FERRAZ CAPIVARI CORRETORA DE</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -8647,12 +7934,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8662,12 +7950,12 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>404055</t>
+          <t>402280</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PRESENCA TOTAL CORRETORA DE SEGS</t>
+          <t>R.J.R. ADM.CORR.DE SEGUROS LTDA.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -8684,12 +7972,12 @@
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -8724,6 +8012,11 @@
       </c>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8733,12 +8026,12 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>404707</t>
+          <t>402280</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PREVITALLI CORR DE SEGS S/C LTDA</t>
+          <t>R.J.R. ADM.CORR.DE SEGUROS LTDA.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -8755,12 +8048,12 @@
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -8795,6 +8088,11 @@
       </c>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8804,12 +8102,12 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>404707</t>
+          <t>402811</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PREVITALLI CORR DE SEGS S/C LTDA</t>
+          <t>RAFARD CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -8826,12 +8124,12 @@
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -8866,6 +8164,11 @@
       </c>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8875,12 +8178,12 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>524728</t>
+          <t>402811</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PROSPERITTE CONSULT CORR SEG BEN</t>
+          <t>RAFARD CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -8897,12 +8200,12 @@
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -8937,6 +8240,11 @@
       </c>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8946,12 +8254,12 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>404888</t>
+          <t>403467</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>QUECINE CORR DE SEGS S/C LTDA</t>
+          <t>ROSILEY CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -8968,12 +8276,12 @@
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -9008,6 +8316,11 @@
       </c>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -9017,12 +8330,12 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>404888</t>
+          <t>403468</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>QUECINE CORR DE SEGS S/C LTDA</t>
+          <t>ROSILEY CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -9039,12 +8352,12 @@
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -9079,81 +8392,48 @@
       </c>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>531</v>
-      </c>
-      <c r="C103" t="n">
-        <v>927</v>
-      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>404466</t>
+          <t>403468</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>R. FERRAZ CAPIVARI CORRETORA DE</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>21024</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>DANILO RODRIGUES DA SILVA</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 316,41</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 339,75</t>
-        </is>
-      </c>
+          <t>ROSILEY CORRETORA DE SEGUROS LTD</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -9186,78 +8466,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>531</v>
-      </c>
-      <c r="C104" t="n">
-        <v>927</v>
-      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>404466</t>
+          <t>401359</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>R. FERRAZ CAPIVARI CORRETORA DE</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>21055</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>RODRIGO BOZZA FERRAZ</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>10</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 527,27</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 664,08</t>
-        </is>
-      </c>
+          <t>ROSSETTI CORRET SEG S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
         <is>
@@ -9299,87 +8542,50 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>531</v>
-      </c>
-      <c r="C105" t="n">
-        <v>990</v>
-      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>404466</t>
+          <t>401359</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>R. FERRAZ CAPIVARI CORRETORA DE</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>110262</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>NILSON MACCHIONI</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>6</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.402,28</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.800,96</t>
-        </is>
-      </c>
+          <t>ROSSETTI CORRET SEG S/C LTDA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -9412,78 +8618,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>531</v>
-      </c>
-      <c r="C106" t="n">
-        <v>990</v>
-      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>404466</t>
+          <t>506408</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>R. FERRAZ CAPIVARI CORRETORA DE</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>110271</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>SAULINHO ALVES DE CASTRO</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>2025-09-25</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>4</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.109,45</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.412,72</t>
-        </is>
-      </c>
+          <t>RUBIA BRITO CORRETORA DE SEGS LT</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
@@ -9525,12 +8694,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -9540,12 +8710,12 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>404466</t>
+          <t>402319</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>R. FERRAZ CAPIVARI CORRETORA DE</t>
+          <t>SAVINOSEG COR. SEGUROS SC LT</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -9562,12 +8732,12 @@
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -9602,6 +8772,11 @@
       </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -9611,12 +8786,12 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>402280</t>
+          <t>402319</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>R.J.R. ADM.CORR.DE SEGUROS LTDA.</t>
+          <t>SAVINOSEG COR. SEGUROS SC LT</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -9633,12 +8808,12 @@
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>929</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>SOROCABA MERCADO</t>
+          <t>PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -9673,43 +8848,86 @@
       </c>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>531</v>
+      </c>
+      <c r="C109" t="n">
+        <v>927</v>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>402280</t>
+          <t>447596</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>R.J.R. ADM.CORR.DE SEGUROS LTDA.</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
+          <t>SEGNOS CORRETORA DE SEGS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>20999</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>ANA PATRICIA MENDONCA ARAUJO</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 127,87</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 137,30</t>
+        </is>
+      </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
@@ -9742,36 +8960,79 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>531</v>
+      </c>
+      <c r="C110" t="n">
+        <v>927</v>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>402811</t>
+          <t>447596</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>RAFARD CORR DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
+          <t>SEGNOS CORRETORA DE SEGS LTDA ME</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>21584</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>VITANTONIO DAMBROSIO</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 207,23</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 222,51</t>
+        </is>
+      </c>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr">
         <is>
@@ -9813,8 +9074,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -9824,12 +9090,12 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>402811</t>
+          <t>405529</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>RAFARD CORR DE SEGUROS LTDA</t>
+          <t>TRADSEG COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -9846,12 +9112,12 @@
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>928</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>PIRACICABA MERCADO</t>
+          <t>SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -9886,6 +9152,11 @@
       </c>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -9895,12 +9166,12 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>403467</t>
+          <t>405529</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ROSILEY CORRETORA DE SEGUROS LTD</t>
+          <t>TRADSEG COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -9957,72 +9228,39 @@
       </c>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>531</v>
-      </c>
-      <c r="C113" t="n">
-        <v>927</v>
-      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>403468</t>
+          <t>512536</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ROSILEY CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>21003</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>VANDERCLEISON CHRISTOFOLETTI</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>4</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 428,88</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 460,52</t>
-        </is>
-      </c>
+          <t>TREVO CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
         <is>
@@ -10064,1003 +9302,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>531</v>
-      </c>
-      <c r="C114" t="n">
-        <v>990</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>403468</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>ROSILEY CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>110428</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>DAVI CAMPOS TAVARES</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>2024-09-27</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>2025-09-27</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>6</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.104,28</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.752,73</t>
-        </is>
-      </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>403468</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>ROSILEY CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>401359</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>ROSSETTI CORRET SEG S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>401359</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>ROSSETTI CORRET SEG S/C LTDA</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>506408</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>RUBIA BRITO CORRETORA DE SEGS LT</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>531</v>
-      </c>
-      <c r="C119" t="n">
-        <v>990</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>402319</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>SAVINOSEG COR. SEGUROS SC LT</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>110279</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>DMG SEGURANCA E MEDICINA DO TRABALHO EIR</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>2024-09-18</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>2025-09-18</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>6</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.911,68</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.126,56</t>
-        </is>
-      </c>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>402319</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>SAVINOSEG COR. SEGUROS SC LT</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V120" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W120" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y120" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>531</v>
-      </c>
-      <c r="C121" t="n">
-        <v>927</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>447596</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>SEGNOS CORRETORA DE SEGS LTDA ME</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>20999</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>ANA PATRICIA MENDONCA ARAUJO</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>2024-10-10</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 127,87</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 137,30</t>
-        </is>
-      </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U121" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V121" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W121" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>531</v>
-      </c>
-      <c r="C122" t="n">
-        <v>990</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>405529</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>TRADSEG COR.DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>110331</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>ELIANA CRISTINA MARASCALCHI</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
-        <v>6</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.676,27</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.873,77</t>
-        </is>
-      </c>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V122" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W122" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y122" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z122" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>405529</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>TRADSEG COR.DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X123" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y123" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>531</v>
-      </c>
-      <c r="C124" t="n">
-        <v>927</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>512536</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>TREVO CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>17547</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>FLAVIA ALESSIO MARCELINO</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>2024-03-27</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
-        <v>6</v>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 306,09</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 328,65</t>
-        </is>
-      </c>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>262.167.978-16</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>Ailton Covre</t>
-        </is>
-      </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W124" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X124" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y124" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z124" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA124" t="inlineStr"/>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
